--- a/src/controllers/file/results/Summary/spreadsheets/total_memo_times.xlsx
+++ b/src/controllers/file/results/Summary/spreadsheets/total_memo_times.xlsx
@@ -466,10 +466,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>9.802849999999999</v>
+        <v>7.31</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01094</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
@@ -482,10 +482,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09419</v>
+        <v>16.4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.07447</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>46.29982</v>
+        <v>33.55</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24949</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -514,10 +514,10 @@
         <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>82.83188</v>
+        <v>36.08</v>
       </c>
       <c r="D5" t="n">
-        <v>1.34363</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -530,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>9.267060000000001</v>
+        <v>5.53</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26751</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>11.75614</v>
+        <v>14.47</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1264</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -562,10 +562,10 @@
         <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>19.55127</v>
+        <v>34.32</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21451</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         <v>90</v>
       </c>
       <c r="C9" t="n">
-        <v>29.04675</v>
+        <v>42.7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3023</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="10">
@@ -594,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>20.92609</v>
+        <v>10.63</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24609</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -610,10 +610,10 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>119.5966</v>
+        <v>35.17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8754</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>411.65137</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.65522</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +642,10 @@
         <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>831.27509</v>
+        <v>124.05</v>
       </c>
       <c r="D13" t="n">
-        <v>2.16526</v>
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>
